--- a/src/test/java/excel/log1.xlsx
+++ b/src/test/java/excel/log1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="301">
   <si>
     <t>Senaryo Adı</t>
   </si>
@@ -852,6 +852,69 @@
   </si>
   <si>
     <t>2022-08-30 22:24:44</t>
+  </si>
+  <si>
+    <t>2022-08-30 23:49:40</t>
+  </si>
+  <si>
+    <t>2022-08-30 23:49:53</t>
+  </si>
+  <si>
+    <t>2022-08-30 23:49:54</t>
+  </si>
+  <si>
+    <t>Recently viewed</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:01:19</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:01:20</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:02:18</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:02:32</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:02:53</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:03:58</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:04:15</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:04:16</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:04:34</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:04:51</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:05:07</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:05:08</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:05:25</t>
+  </si>
+  <si>
+    <t>Products on homepage</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:39:01</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:39:07</t>
+  </si>
+  <si>
+    <t>2022-08-31 00:39:15</t>
   </si>
 </sst>
 </file>
@@ -896,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C562"/>
+  <dimension ref="A1:C616"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7084,6 +7147,600 @@
         <v>279</v>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>0</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1</v>
+      </c>
+      <c r="C563" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>265</v>
+      </c>
+      <c r="B564" t="s">
+        <v>4</v>
+      </c>
+      <c r="C564" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>265</v>
+      </c>
+      <c r="B565" t="s">
+        <v>44</v>
+      </c>
+      <c r="C565" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>265</v>
+      </c>
+      <c r="B566" t="s">
+        <v>48</v>
+      </c>
+      <c r="C566" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>265</v>
+      </c>
+      <c r="B567" t="s">
+        <v>9</v>
+      </c>
+      <c r="C567" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>13</v>
+      </c>
+      <c r="B568" t="s">
+        <v>14</v>
+      </c>
+      <c r="C568" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>0</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1</v>
+      </c>
+      <c r="C569" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>283</v>
+      </c>
+      <c r="B570" t="s">
+        <v>4</v>
+      </c>
+      <c r="C570" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>283</v>
+      </c>
+      <c r="B571" t="s">
+        <v>44</v>
+      </c>
+      <c r="C571" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>283</v>
+      </c>
+      <c r="B572" t="s">
+        <v>48</v>
+      </c>
+      <c r="C572" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>283</v>
+      </c>
+      <c r="B573" t="s">
+        <v>9</v>
+      </c>
+      <c r="C573" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>13</v>
+      </c>
+      <c r="B574" t="s">
+        <v>14</v>
+      </c>
+      <c r="C574" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>0</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1</v>
+      </c>
+      <c r="C575" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>265</v>
+      </c>
+      <c r="B576" t="s">
+        <v>4</v>
+      </c>
+      <c r="C576" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>265</v>
+      </c>
+      <c r="B577" t="s">
+        <v>44</v>
+      </c>
+      <c r="C577" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>265</v>
+      </c>
+      <c r="B578" t="s">
+        <v>48</v>
+      </c>
+      <c r="C578" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>265</v>
+      </c>
+      <c r="B579" t="s">
+        <v>9</v>
+      </c>
+      <c r="C579" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>283</v>
+      </c>
+      <c r="B580" t="s">
+        <v>4</v>
+      </c>
+      <c r="C580" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>283</v>
+      </c>
+      <c r="B581" t="s">
+        <v>44</v>
+      </c>
+      <c r="C581" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>283</v>
+      </c>
+      <c r="B582" t="s">
+        <v>48</v>
+      </c>
+      <c r="C582" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>283</v>
+      </c>
+      <c r="B583" t="s">
+        <v>9</v>
+      </c>
+      <c r="C583" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>13</v>
+      </c>
+      <c r="B584" t="s">
+        <v>14</v>
+      </c>
+      <c r="C584" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>0</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1</v>
+      </c>
+      <c r="C585" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>16</v>
+      </c>
+      <c r="B586" t="s">
+        <v>4</v>
+      </c>
+      <c r="C586" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>16</v>
+      </c>
+      <c r="B587" t="s">
+        <v>44</v>
+      </c>
+      <c r="C587" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>16</v>
+      </c>
+      <c r="B588" t="s">
+        <v>7</v>
+      </c>
+      <c r="C588" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>16</v>
+      </c>
+      <c r="B589" t="s">
+        <v>9</v>
+      </c>
+      <c r="C589" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>19</v>
+      </c>
+      <c r="B590" t="s">
+        <v>4</v>
+      </c>
+      <c r="C590" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>19</v>
+      </c>
+      <c r="B591" t="s">
+        <v>44</v>
+      </c>
+      <c r="C591" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>19</v>
+      </c>
+      <c r="B592" t="s">
+        <v>7</v>
+      </c>
+      <c r="C592" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>19</v>
+      </c>
+      <c r="B593" t="s">
+        <v>9</v>
+      </c>
+      <c r="C593" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>22</v>
+      </c>
+      <c r="B594" t="s">
+        <v>4</v>
+      </c>
+      <c r="C594" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>22</v>
+      </c>
+      <c r="B595" t="s">
+        <v>44</v>
+      </c>
+      <c r="C595" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>22</v>
+      </c>
+      <c r="B596" t="s">
+        <v>7</v>
+      </c>
+      <c r="C596" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>22</v>
+      </c>
+      <c r="B597" t="s">
+        <v>9</v>
+      </c>
+      <c r="C597" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>25</v>
+      </c>
+      <c r="B598" t="s">
+        <v>4</v>
+      </c>
+      <c r="C598" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>25</v>
+      </c>
+      <c r="B599" t="s">
+        <v>44</v>
+      </c>
+      <c r="C599" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>25</v>
+      </c>
+      <c r="B600" t="s">
+        <v>7</v>
+      </c>
+      <c r="C600" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>25</v>
+      </c>
+      <c r="B601" t="s">
+        <v>9</v>
+      </c>
+      <c r="C601" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>28</v>
+      </c>
+      <c r="B602" t="s">
+        <v>4</v>
+      </c>
+      <c r="C602" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>28</v>
+      </c>
+      <c r="B603" t="s">
+        <v>44</v>
+      </c>
+      <c r="C603" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>28</v>
+      </c>
+      <c r="B604" t="s">
+        <v>7</v>
+      </c>
+      <c r="C604" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>28</v>
+      </c>
+      <c r="B605" t="s">
+        <v>9</v>
+      </c>
+      <c r="C605" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>13</v>
+      </c>
+      <c r="B606" t="s">
+        <v>14</v>
+      </c>
+      <c r="C606" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>0</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1</v>
+      </c>
+      <c r="C607" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>297</v>
+      </c>
+      <c r="B608" t="s">
+        <v>4</v>
+      </c>
+      <c r="C608" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>297</v>
+      </c>
+      <c r="B609" t="s">
+        <v>44</v>
+      </c>
+      <c r="C609" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>297</v>
+      </c>
+      <c r="B610" t="s">
+        <v>7</v>
+      </c>
+      <c r="C610" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>297</v>
+      </c>
+      <c r="B611" t="s">
+        <v>9</v>
+      </c>
+      <c r="C611" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>265</v>
+      </c>
+      <c r="B612" t="s">
+        <v>4</v>
+      </c>
+      <c r="C612" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>265</v>
+      </c>
+      <c r="B613" t="s">
+        <v>44</v>
+      </c>
+      <c r="C613" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>265</v>
+      </c>
+      <c r="B614" t="s">
+        <v>7</v>
+      </c>
+      <c r="C614" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>265</v>
+      </c>
+      <c r="B615" t="s">
+        <v>9</v>
+      </c>
+      <c r="C615" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>13</v>
+      </c>
+      <c r="B616" t="s">
+        <v>14</v>
+      </c>
+      <c r="C616" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
